--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Position</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Load Switch IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">863-MC74VHC1G135DBVT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAND Gatter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC74VHC1G135DBVT1G </t>
   </si>
 </sst>
 </file>
@@ -782,7 +791,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,13 +1062,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="36"/>
       <c r="I12" s="37">

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -791,7 +791,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Position</t>
   </si>
@@ -146,9 +146,6 @@
     <t xml:space="preserve">MIC2033-10AYM6-TR </t>
   </si>
   <si>
-    <t>Load Switch IC</t>
-  </si>
-  <si>
     <t xml:space="preserve">863-MC74VHC1G135DBVT </t>
   </si>
   <si>
@@ -156,6 +153,27 @@
   </si>
   <si>
     <t xml:space="preserve">MC74VHC1G135DBVT1G </t>
+  </si>
+  <si>
+    <t>5V Load Switch IC</t>
+  </si>
+  <si>
+    <t>9V Load Switch IC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-SI1865DDL-T1-BE3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI1865DDL-T1-BE3 </t>
+  </si>
+  <si>
+    <t>653-G6DN1ADC45</t>
+  </si>
+  <si>
+    <t>G6DN-1A DC4.5</t>
+  </si>
+  <si>
+    <t>Relais 5A 4.5VDC</t>
   </si>
 </sst>
 </file>
@@ -791,7 +809,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1061,7 @@
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>38</v>
@@ -1065,17 +1083,17 @@
     <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="36"/>
@@ -1086,11 +1104,19 @@
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="36"/>
       <c r="I13" s="37">
@@ -1100,11 +1126,19 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="36"/>
       <c r="I14" s="37">

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Position</t>
   </si>
@@ -167,13 +167,64 @@
     <t xml:space="preserve">SI1865DDL-T1-BE3 </t>
   </si>
   <si>
-    <t>653-G6DN1ADC45</t>
-  </si>
-  <si>
-    <t>G6DN-1A DC4.5</t>
-  </si>
-  <si>
-    <t>Relais 5A 4.5VDC</t>
+    <t xml:space="preserve">653-G5NB-1A4-E-DC5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G5NB-1A4-E-DC5 </t>
+  </si>
+  <si>
+    <t>Relais 5A 5VDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-T491A106K016 </t>
+  </si>
+  <si>
+    <t>Tantalkondensatoren - fest für SMD 16V 10uF 1206 10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">755-ESR10EZPJ752 </t>
+  </si>
+  <si>
+    <t>10 uF Kondensator</t>
+  </si>
+  <si>
+    <t>7k5 Widerstand</t>
+  </si>
+  <si>
+    <t>Dickfilmwiderstände - SMD 0805 7K5ohm 5% Anti Surge AEC-Q200</t>
+  </si>
+  <si>
+    <t>1k2 Widerstand</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-071K2L</t>
+  </si>
+  <si>
+    <t>Dickfilmwiderstände - SMD 1.2 kOhms 125 mW 0805 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78-V8PAM10S-M3/H </t>
+  </si>
+  <si>
+    <t>Schottky Dioden &amp; Gleichrichter 8A 100V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-R82EC4100Z370J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folienkondensatoren 100V 1uF 5% LS=5mm AEC-Q200 </t>
+  </si>
+  <si>
+    <t>1uF Kondensator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652-SRP1038C-470M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festinduktivitäten Ind,11x10x3.8mm,47uH 20%,3.2A,Shd,SMD </t>
+  </si>
+  <si>
+    <t>47uH Spule</t>
   </si>
 </sst>
 </file>
@@ -809,7 +860,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,13 +1197,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="36"/>
       <c r="I15" s="37">
@@ -1160,13 +1219,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="36"/>
       <c r="I16" s="37">
@@ -1174,13 +1241,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="36"/>
       <c r="I17" s="37">
@@ -1188,13 +1263,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="36"/>
       <c r="I18" s="37">
@@ -1202,13 +1285,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37">
@@ -1216,13 +1307,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37">

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Position</t>
   </si>
@@ -225,6 +225,63 @@
   </si>
   <si>
     <t>47uH Spule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-T521X337M16ATE015 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tantalkondensatoren – Polymer 16V 330uF 7343 ESR=15mOhms 20% </t>
+  </si>
+  <si>
+    <t>330uF Kondensator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-SHBC14-1R2A0187V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Festinduktivitäten 187uH 8A 20% DCR=37.6mOhms </t>
+  </si>
+  <si>
+    <t>187 uH Spule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598-478CKE010M </t>
+  </si>
+  <si>
+    <t>4.7mF Kondensator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium-Elektrolyt-Kondensatoren - Radial bedrahtet 4700uF 10V 20% LYTICS/IC </t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0768KL</t>
+  </si>
+  <si>
+    <t>68k Widerstand</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-076K8L</t>
+  </si>
+  <si>
+    <t>6k8 Widerstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-2828412 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feste Anschlussblöcke 2 POS. PC/MNT. TERM. </t>
+  </si>
+  <si>
+    <t>Feste Anschlussblöcke 2P</t>
+  </si>
+  <si>
+    <t>Feste Anschlussblöcke 3P</t>
+  </si>
+  <si>
+    <t>Feste Anschlussblöcke 3P PCB TERM BLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-2828413 </t>
   </si>
 </sst>
 </file>
@@ -860,7 +917,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1373,9 @@
         <v>64</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F20" s="5" t="s">
         <v>63</v>
       </c>
@@ -1327,13 +1386,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37">
@@ -1341,13 +1408,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37">
@@ -1355,13 +1430,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37">
@@ -1371,11 +1454,17 @@
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="C24" s="8"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37">
@@ -1385,11 +1474,17 @@
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37">
@@ -1397,13 +1492,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37">
@@ -1411,13 +1514,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="37"/>
       <c r="I27" s="37">

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bweina\Documents\MultiPower\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\Bbc Projekte\multi-power\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88242B91-A2B2-4F95-9C7B-7830278057E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20250" windowHeight="11520"/>
+    <workbookView xWindow="-3030" yWindow="0" windowWidth="21600" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>Position</t>
   </si>
@@ -282,18 +292,45 @@
   </si>
   <si>
     <t xml:space="preserve">571-2828413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">581-TCJB107M006R0040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tantalkondensatoren – Polymer 6.3V 100uF 20% 1210 ESR=40mOhm </t>
+  </si>
+  <si>
+    <t>100uF Kondensator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74-T58W9476M6R3C0300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tantalkondensatoren – Polymer 47uF 6.3volts 20% 300mohms Max. ESR </t>
+  </si>
+  <si>
+    <t>47uF Kondensator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581-TCJA106M010S0300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tantalkondensatoren – Polymer 10V 10uF 20% 1206 ESR=300mOhm </t>
+  </si>
+  <si>
+    <t>10uF Kondensator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$CHF-807]\ * #,##0.00_ ;_ [$CHF-807]\ * \-#,##0.00_ ;_ [$CHF-807]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0###"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$CHF-807]\ * #,##0.00_ ;_ [$CHF-807]\ * \-#,##0.00_ ;_ [$CHF-807]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0###"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,7 +527,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -502,7 +539,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,7 +557,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,7 +575,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,7 +587,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,28 +635,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,30 +947,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="28" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="28" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" style="28" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="32" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="28" customWidth="1"/>
     <col min="7" max="7" width="9" style="32" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="29"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -944,7 +981,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="26.25">
       <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
@@ -957,7 +994,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="33">
       <c r="A4" s="23"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
@@ -1014,7 +1051,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
@@ -1042,7 +1079,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>24</v>
@@ -1070,7 +1107,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="33" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -1096,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>28</v>
@@ -1122,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -1144,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>36</v>
@@ -1166,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>42</v>
@@ -1188,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="33">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>40</v>
@@ -1210,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>43</v>
@@ -1232,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>48</v>
@@ -1254,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="42.75">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>52</v>
@@ -1276,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="42.75">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>53</v>
@@ -1298,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="42.75">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
         <v>55</v>
@@ -1320,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="33">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>22</v>
@@ -1342,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="33">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
         <v>62</v>
@@ -1364,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="42.75">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>65</v>
@@ -1386,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="42.75">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>68</v>
@@ -1408,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="28.5">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>71</v>
@@ -1430,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="57">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>73</v>
@@ -1452,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>76</v>
@@ -1472,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>78</v>
@@ -1492,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="28.5">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>81</v>
@@ -1514,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="28.5">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>82</v>
@@ -1536,13 +1573,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="42.75">
       <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37">
@@ -1550,13 +1595,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="28.5" customHeight="1">
       <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37">
@@ -1564,13 +1617,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="42.75">
       <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="37"/>
       <c r="I30" s="37">
@@ -1578,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -1592,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="30"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -1609,7 +1670,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
   </mergeCells>

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Altium\Bbc Projekte\multi-power\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bweina\Documents\MultiPower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88242B91-A2B2-4F95-9C7B-7830278057E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3030" yWindow="0" windowWidth="21600" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3030" yWindow="0" windowWidth="21600" windowHeight="13305"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>Position</t>
   </si>
@@ -319,18 +318,51 @@
   </si>
   <si>
     <t>10uF Kondensator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">594-MMA02040C1002FB3 </t>
+  </si>
+  <si>
+    <t>10k MELF Widerstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELF Widerstände 0.4W 10Kohms 1% 0204 MELF 200V 50ppm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80-T491A105M010AT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tantalkondensatoren - fest für SMD 10v 1uF 1206 20% ESR=10Ohms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">756-WRM0204C-1K0FI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELF Widerstände 0204 1 kOhms 1% Tol. 50ppm </t>
+  </si>
+  <si>
+    <t>1k MELF Widerstand</t>
+  </si>
+  <si>
+    <t>667-ECH-U1H102GX5</t>
+  </si>
+  <si>
+    <t>1nF Folienkondensator</t>
+  </si>
+  <si>
+    <t>Folienkondensatoren 1000pF 50VDC 2% PPS FILM 0805</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ [$CHF-807]\ * #,##0.00_ ;_ [$CHF-807]\ * \-#,##0.00_ ;_ [$CHF-807]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0###"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;CHF&quot;\ * #,##0.00_ ;_ &quot;CHF&quot;\ * \-#,##0.00_ ;_ &quot;CHF&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$CHF-807]\ * #,##0.00_ ;_ [$CHF-807]\ * \-#,##0.00_ ;_ [$CHF-807]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0###"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +559,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -539,7 +571,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +589,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +607,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +619,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,28 +667,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,17 +979,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="28" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="28" customWidth="1"/>
@@ -970,7 +1002,7 @@
     <col min="9" max="9" width="13.7109375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -981,7 +1013,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="26.25">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
@@ -994,7 +1026,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33">
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23" t="s">
         <v>12</v>
@@ -1051,7 +1083,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>23</v>
@@ -1075,11 +1107,11 @@
         <v>3.99</v>
       </c>
       <c r="I5" s="37">
-        <f t="shared" ref="I5:I31" si="0">G5*H5</f>
+        <f t="shared" ref="I5:I39" si="0">G5*H5</f>
         <v>3.99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>24</v>
@@ -1107,7 +1139,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" customHeight="1">
+    <row r="7" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -1133,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>28</v>
@@ -1159,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>33</v>
@@ -1181,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>36</v>
@@ -1203,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>42</v>
@@ -1225,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="33">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>40</v>
@@ -1247,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>43</v>
@@ -1269,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>48</v>
@@ -1291,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75">
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
         <v>52</v>
@@ -1313,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42.75">
+    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>53</v>
@@ -1335,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42.75">
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
         <v>55</v>
@@ -1357,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33">
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>22</v>
@@ -1379,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33">
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
         <v>62</v>
@@ -1401,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42.75">
+    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>65</v>
@@ -1423,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="42.75">
+    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>68</v>
@@ -1445,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.5">
+    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>71</v>
@@ -1467,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="57">
+    <row r="23" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>73</v>
@@ -1489,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>76</v>
@@ -1509,7 +1541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>78</v>
@@ -1529,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.5">
+    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>81</v>
@@ -1551,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.5">
+    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>82</v>
@@ -1573,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="42.75">
+    <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>87</v>
@@ -1595,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.5" customHeight="1">
+    <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>90</v>
@@ -1617,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="42.75">
+    <row r="30" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
         <v>93</v>
@@ -1639,38 +1671,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>97</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="38"/>
-      <c r="I31" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="30"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="39" t="s">
+      <c r="I31" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="42">
-        <f>SUM(I4:I31)</f>
+      <c r="I40" s="42">
+        <f>SUM(I4:I39)</f>
         <v>8.69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:I3"/>
   <mergeCells count="1">
     <mergeCell ref="A2:C2"/>
   </mergeCells>

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>Position</t>
   </si>
@@ -191,27 +191,9 @@
     <t>Tantalkondensatoren - fest für SMD 16V 10uF 1206 10%</t>
   </si>
   <si>
-    <t xml:space="preserve">755-ESR10EZPJ752 </t>
-  </si>
-  <si>
     <t>10 uF Kondensator</t>
   </si>
   <si>
-    <t>7k5 Widerstand</t>
-  </si>
-  <si>
-    <t>Dickfilmwiderstände - SMD 0805 7K5ohm 5% Anti Surge AEC-Q200</t>
-  </si>
-  <si>
-    <t>1k2 Widerstand</t>
-  </si>
-  <si>
-    <t>603-RC0805FR-071K2L</t>
-  </si>
-  <si>
-    <t>Dickfilmwiderstände - SMD 1.2 kOhms 125 mW 0805 1%</t>
-  </si>
-  <si>
     <t xml:space="preserve">78-V8PAM10S-M3/H </t>
   </si>
   <si>
@@ -263,18 +245,6 @@
     <t xml:space="preserve">Aluminium-Elektrolyt-Kondensatoren - Radial bedrahtet 4700uF 10V 20% LYTICS/IC </t>
   </si>
   <si>
-    <t>603-RC0805FR-0768KL</t>
-  </si>
-  <si>
-    <t>68k Widerstand</t>
-  </si>
-  <si>
-    <t>603-RC0805FR-076K8L</t>
-  </si>
-  <si>
-    <t>6k8 Widerstand</t>
-  </si>
-  <si>
     <t xml:space="preserve">571-2828412 </t>
   </si>
   <si>
@@ -351,6 +321,51 @@
   </si>
   <si>
     <t>Folienkondensatoren 1000pF 50VDC 2% PPS FILM 0805</t>
+  </si>
+  <si>
+    <t>667-ECH-U1C104JX5</t>
+  </si>
+  <si>
+    <t>Folienkondensatoren 0.1uF 16VDC 5% PPS FILM 1210</t>
+  </si>
+  <si>
+    <t>100nF Folienkondensator</t>
+  </si>
+  <si>
+    <t>71-SMM02040C6802FB00</t>
+  </si>
+  <si>
+    <t>68k MELF Widerstand</t>
+  </si>
+  <si>
+    <t>MELF Widerstände 1/4watt 68Kohms 1% 50ppm 13"</t>
+  </si>
+  <si>
+    <t>71-SMM02040C6801FB00</t>
+  </si>
+  <si>
+    <t>6k8 MELF Widerstand</t>
+  </si>
+  <si>
+    <t>MELF Widerstände 1/4watt 6.8Kohms 1% 50ppm 13"</t>
+  </si>
+  <si>
+    <t>71-SMM02040C7501FB00</t>
+  </si>
+  <si>
+    <t>7k5 MELF Widerstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELF Widerstände 1/4watt 7.5Kohms 1% 50ppm 13" </t>
+  </si>
+  <si>
+    <t>71-SMM02040C1201FB00</t>
+  </si>
+  <si>
+    <t>1k2 MELF Widerstand</t>
+  </si>
+  <si>
+    <t>MELF Widerstände 1/4watt 1.2Kohms 1% 50ppm 13"</t>
   </si>
 </sst>
 </file>
@@ -985,8 +1000,8 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1341,7 @@
     <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>50</v>
@@ -1345,20 +1360,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="36"/>
@@ -1370,17 +1385,17 @@
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="36"/>
@@ -1395,14 +1410,14 @@
         <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="36"/>
@@ -1414,17 +1429,17 @@
     <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="37"/>
@@ -1436,17 +1451,17 @@
     <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="37"/>
@@ -1458,17 +1473,17 @@
     <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="37"/>
@@ -1480,17 +1495,17 @@
     <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="37"/>
@@ -1502,17 +1517,17 @@
     <row r="23" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="37"/>
@@ -1521,18 +1536,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="37"/>
@@ -1541,18 +1558,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="37"/>
@@ -1564,17 +1583,17 @@
     <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="37"/>
@@ -1586,17 +1605,17 @@
     <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="37"/>
@@ -1608,17 +1627,17 @@
     <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="37"/>
@@ -1630,17 +1649,17 @@
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="37"/>
@@ -1652,17 +1671,17 @@
     <row r="30" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="37"/>
@@ -1674,17 +1693,17 @@
     <row r="31" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="38"/>
@@ -1696,17 +1715,17 @@
     <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="38"/>
@@ -1718,17 +1737,17 @@
     <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="38"/>
@@ -1737,13 +1756,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
+      <c r="B34" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="38"/>
       <c r="I34" s="37">
@@ -1810,17 +1837,17 @@
     <row r="39" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="24" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="38"/>

--- a/StücklisteMP.xlsx
+++ b/StücklisteMP.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>Position</t>
   </si>
@@ -236,15 +236,9 @@
     <t>187 uH Spule</t>
   </si>
   <si>
-    <t xml:space="preserve">598-478CKE010M </t>
-  </si>
-  <si>
     <t>4.7mF Kondensator</t>
   </si>
   <si>
-    <t xml:space="preserve">Aluminium-Elektrolyt-Kondensatoren - Radial bedrahtet 4700uF 10V 20% LYTICS/IC </t>
-  </si>
-  <si>
     <t xml:space="preserve">571-2828412 </t>
   </si>
   <si>
@@ -366,6 +360,30 @@
   </si>
   <si>
     <t>MELF Widerstände 1/4watt 1.2Kohms 1% 50ppm 13"</t>
+  </si>
+  <si>
+    <t>667-EEU-FS0J472B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum Electrolytic Capacitors - Radial Leaded 6.3VDC 4700uF 10000H 12.5x20mm </t>
+  </si>
+  <si>
+    <t>1M Widerstand</t>
+  </si>
+  <si>
+    <t>Thick Film Resistors - SMD 1 MOhms 125 mW 0805 1%</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-071ML</t>
+  </si>
+  <si>
+    <t>603-CC805KRX7R9BB472</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT 50V 4700pF X7R 0805 10%</t>
+  </si>
+  <si>
+    <t>4.7nF Kondensator</t>
   </si>
 </sst>
 </file>
@@ -1000,8 +1018,8 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,17 +1381,17 @@
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="36"/>
@@ -1385,17 +1403,17 @@
     <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="36"/>
@@ -1517,17 +1535,17 @@
     <row r="23" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="37"/>
@@ -1539,17 +1557,17 @@
     <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="37"/>
@@ -1561,17 +1579,17 @@
     <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="37"/>
@@ -1583,17 +1601,17 @@
     <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="37"/>
@@ -1605,17 +1623,17 @@
     <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="37"/>
@@ -1627,17 +1645,17 @@
     <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="37"/>
@@ -1649,17 +1667,17 @@
     <row r="29" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="37"/>
@@ -1671,17 +1689,17 @@
     <row r="30" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="37"/>
@@ -1696,14 +1714,14 @@
         <v>56</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="38"/>
@@ -1715,17 +1733,17 @@
     <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="38"/>
@@ -1737,17 +1755,17 @@
     <row r="33" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="38"/>
@@ -1759,17 +1777,17 @@
     <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="38"/>
@@ -1778,13 +1796,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="38"/>
       <c r="I35" s="37">
@@ -1792,13 +1818,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
+      <c r="E36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>113</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="38"/>
       <c r="I36" s="37">
@@ -1837,17 +1871,17 @@
     <row r="39" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="38"/>
